--- a/supplies-frontend/static/template.xlsx
+++ b/supplies-frontend/static/template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\supplies\supplies-frontend\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\supplies\supplies-frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F82CA7-CF11-4BBD-8660-0450F72F3CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="蔬菜" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="695">
   <si>
     <t>物料编码</t>
   </si>
@@ -15865,14 +15864,58 @@
   </si>
   <si>
     <t>物料名称</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>听</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>板</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：此列无效</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -15988,20 +16031,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -16014,8 +16043,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16031,6 +16081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -16174,7 +16230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -16304,28 +16360,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16334,14 +16375,23 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16369,6 +16419,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16644,50 +16709,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="40" customWidth="1"/>
     <col min="2" max="2" width="34" style="35" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:8" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="63" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
@@ -16698,12 +16763,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>694</v>
+      </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -16719,7 +16788,7 @@
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>10</v>
       </c>
@@ -16735,7 +16804,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
@@ -16751,7 +16820,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
@@ -16767,7 +16836,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>16</v>
       </c>
@@ -16783,7 +16852,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>18</v>
       </c>
@@ -16799,7 +16868,7 @@
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
@@ -16815,7 +16884,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>22</v>
       </c>
@@ -16831,7 +16900,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>24</v>
       </c>
@@ -16847,7 +16916,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
@@ -16863,7 +16932,7 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>28</v>
       </c>
@@ -16879,7 +16948,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>30</v>
       </c>
@@ -16895,7 +16964,7 @@
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>32</v>
       </c>
@@ -16911,7 +16980,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>34</v>
       </c>
@@ -16927,7 +16996,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>36</v>
       </c>
@@ -16943,7 +17012,7 @@
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>38</v>
       </c>
@@ -16959,7 +17028,7 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>41</v>
       </c>
@@ -16975,7 +17044,7 @@
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>43</v>
       </c>
@@ -16991,7 +17060,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>45</v>
       </c>
@@ -17007,7 +17076,7 @@
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>48</v>
       </c>
@@ -17023,7 +17092,7 @@
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>50</v>
       </c>
@@ -17039,7 +17108,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>52</v>
       </c>
@@ -17055,7 +17124,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>54</v>
       </c>
@@ -17071,7 +17140,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>56</v>
       </c>
@@ -17087,7 +17156,7 @@
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>58</v>
       </c>
@@ -17103,7 +17172,7 @@
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>60</v>
       </c>
@@ -17119,7 +17188,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>63</v>
       </c>
@@ -17135,7 +17204,7 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>65</v>
       </c>
@@ -17151,7 +17220,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>1000407</v>
       </c>
@@ -17167,7 +17236,7 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>1000110</v>
       </c>
@@ -17183,7 +17252,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>4718262</v>
       </c>
@@ -17199,7 +17268,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>100089</v>
       </c>
@@ -17215,7 +17284,7 @@
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>4001249</v>
       </c>
@@ -17231,7 +17300,7 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>3000047</v>
       </c>
@@ -17247,7 +17316,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>4000353</v>
       </c>
@@ -17258,12 +17327,12 @@
         <v>7</v>
       </c>
       <c r="D37" s="41"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>1000008</v>
       </c>
@@ -17274,122 +17343,122 @@
         <v>7</v>
       </c>
       <c r="D38" s="41"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="43"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="43"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="43"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="43"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="43"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="43"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="43"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -17400,50 +17469,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="10" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="63" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>77</v>
       </c>
@@ -17454,12 +17523,20 @@
         <v>47</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>79</v>
       </c>
@@ -17472,10 +17549,14 @@
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -17488,10 +17569,14 @@
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="H4" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>84</v>
       </c>
@@ -17507,7 +17592,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>86</v>
       </c>
@@ -17520,10 +17605,14 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H6" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>88</v>
       </c>
@@ -17536,10 +17625,14 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H7" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>90</v>
       </c>
@@ -17552,10 +17645,14 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H8" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>92</v>
       </c>
@@ -17568,10 +17665,14 @@
       <c r="D9" s="34"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>94</v>
       </c>
@@ -17587,7 +17688,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>96</v>
       </c>
@@ -17600,10 +17701,14 @@
       <c r="D11" s="34"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H11" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>98</v>
       </c>
@@ -17616,10 +17721,14 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H12" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>100</v>
       </c>
@@ -17635,7 +17744,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>102</v>
       </c>
@@ -17643,15 +17752,19 @@
         <v>103</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>105</v>
       </c>
@@ -17664,10 +17777,14 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>107</v>
       </c>
@@ -17683,7 +17800,7 @@
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>109</v>
       </c>
@@ -17696,42 +17813,54 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H17" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>104</v>
+      <c r="C18" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H18" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>104</v>
+      <c r="C19" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H19" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>115</v>
       </c>
@@ -17747,7 +17876,7 @@
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>117</v>
       </c>
@@ -17760,10 +17889,14 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H21" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>119</v>
       </c>
@@ -17776,10 +17909,14 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>121</v>
       </c>
@@ -17795,7 +17932,7 @@
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>123</v>
       </c>
@@ -17808,10 +17945,14 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H24" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>125</v>
       </c>
@@ -17824,10 +17965,14 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H25" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>127</v>
       </c>
@@ -17840,10 +17985,14 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H26" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>129</v>
       </c>
@@ -17856,10 +18005,14 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H27" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>131</v>
       </c>
@@ -17875,7 +18028,7 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>133</v>
       </c>
@@ -17888,10 +18041,14 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H29" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>135</v>
       </c>
@@ -17907,7 +18064,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
     </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>137</v>
       </c>
@@ -17920,10 +18077,14 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H31" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>139</v>
       </c>
@@ -17936,10 +18097,10 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>141</v>
       </c>
@@ -17952,10 +18113,14 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H33" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>143</v>
       </c>
@@ -17968,10 +18133,14 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H34" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>145</v>
       </c>
@@ -17984,10 +18153,14 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H35" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>147</v>
       </c>
@@ -18000,10 +18173,14 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H36" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>149</v>
       </c>
@@ -18016,10 +18193,14 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H37" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
@@ -18032,10 +18213,14 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H38" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>153</v>
       </c>
@@ -18048,10 +18233,14 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H39" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>155</v>
       </c>
@@ -18064,10 +18253,14 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H40" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>157</v>
       </c>
@@ -18083,39 +18276,47 @@
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
     </row>
-    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>83</v>
+      <c r="C42" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H42" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>161</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>83</v>
+      <c r="C43" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H43" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>163</v>
       </c>
@@ -18128,10 +18329,14 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H44" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>165</v>
       </c>
@@ -18147,7 +18352,7 @@
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>167</v>
       </c>
@@ -18163,7 +18368,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>169</v>
       </c>
@@ -18179,7 +18384,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>171</v>
       </c>
@@ -18192,10 +18397,14 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H48" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>173</v>
       </c>
@@ -18208,10 +18417,14 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H49" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>175</v>
       </c>
@@ -18224,10 +18437,14 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H50" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>177</v>
       </c>
@@ -18240,10 +18457,14 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H51" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>179</v>
       </c>
@@ -18259,7 +18480,7 @@
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
     </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>181</v>
       </c>
@@ -18272,10 +18493,14 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H53" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>183</v>
       </c>
@@ -18291,7 +18516,7 @@
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
     </row>
-    <row r="55" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>185</v>
       </c>
@@ -18307,7 +18532,7 @@
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>187</v>
       </c>
@@ -18323,7 +18548,7 @@
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>189</v>
       </c>
@@ -18339,7 +18564,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
     </row>
-    <row r="58" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>191</v>
       </c>
@@ -18352,10 +18577,14 @@
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H58" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>193</v>
       </c>
@@ -18368,10 +18597,14 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H59" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>195</v>
       </c>
@@ -18387,7 +18620,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>197</v>
       </c>
@@ -18403,7 +18636,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
     </row>
-    <row r="62" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>199</v>
       </c>
@@ -18419,7 +18652,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
     </row>
-    <row r="63" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>201</v>
       </c>
@@ -18435,7 +18668,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>203</v>
       </c>
@@ -18448,10 +18681,14 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H64" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>205</v>
       </c>
@@ -18467,7 +18704,7 @@
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="66" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>207</v>
       </c>
@@ -18480,10 +18717,14 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-    </row>
-    <row r="67" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H66" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>209</v>
       </c>
@@ -18496,10 +18737,14 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H67" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>211</v>
       </c>
@@ -18512,10 +18757,14 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H68" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>213</v>
       </c>
@@ -18528,10 +18777,14 @@
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H69" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>215</v>
       </c>
@@ -18544,10 +18797,14 @@
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H70" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>217</v>
       </c>
@@ -18560,10 +18817,14 @@
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H71" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>219</v>
       </c>
@@ -18576,10 +18837,14 @@
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H72" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>221</v>
       </c>
@@ -18592,10 +18857,14 @@
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-    </row>
-    <row r="74" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H73" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>223</v>
       </c>
@@ -18608,10 +18877,14 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H74" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>225</v>
       </c>
@@ -18624,10 +18897,14 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H75" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>227</v>
       </c>
@@ -18640,10 +18917,14 @@
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H76" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>229</v>
       </c>
@@ -18656,10 +18937,14 @@
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-    </row>
-    <row r="78" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H77" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>231</v>
       </c>
@@ -18672,10 +18957,14 @@
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-    </row>
-    <row r="79" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H78" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>233</v>
       </c>
@@ -18688,10 +18977,14 @@
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H79" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>235</v>
       </c>
@@ -18704,10 +18997,14 @@
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-    </row>
-    <row r="81" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H80" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>237</v>
       </c>
@@ -18720,10 +19017,14 @@
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-    </row>
-    <row r="82" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H81" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>239</v>
       </c>
@@ -18736,10 +19037,14 @@
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-    </row>
-    <row r="83" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H82" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>241</v>
       </c>
@@ -18752,10 +19057,14 @@
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H83" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>243</v>
       </c>
@@ -18768,10 +19077,14 @@
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H84" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>245</v>
       </c>
@@ -18784,10 +19097,14 @@
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="86" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H85" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>247</v>
       </c>
@@ -18800,10 +19117,14 @@
       <c r="D86" s="36"/>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H86" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11">
         <v>1000172</v>
       </c>
@@ -18819,7 +19140,7 @@
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
     </row>
-    <row r="88" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>250</v>
       </c>
@@ -18835,7 +19156,7 @@
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
     </row>
-    <row r="89" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>252</v>
       </c>
@@ -18851,7 +19172,7 @@
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
     </row>
-    <row r="90" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>254</v>
       </c>
@@ -18867,7 +19188,7 @@
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
     </row>
-    <row r="91" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>256</v>
       </c>
@@ -18883,7 +19204,7 @@
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
     </row>
-    <row r="92" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>258</v>
       </c>
@@ -18899,7 +19220,7 @@
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
     </row>
-    <row r="93" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>260</v>
       </c>
@@ -18915,7 +19236,7 @@
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
     </row>
-    <row r="94" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>262</v>
       </c>
@@ -18931,7 +19252,7 @@
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
     </row>
-    <row r="95" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>264</v>
       </c>
@@ -18947,23 +19268,27 @@
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
     </row>
-    <row r="96" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>266</v>
       </c>
       <c r="B96" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C96" s="25" t="s">
-        <v>83</v>
+      <c r="C96" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H96" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>268</v>
       </c>
@@ -18979,7 +19304,7 @@
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
     </row>
-    <row r="98" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>270</v>
       </c>
@@ -18995,7 +19320,7 @@
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
     </row>
-    <row r="99" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>272</v>
       </c>
@@ -19008,26 +19333,34 @@
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-    </row>
-    <row r="100" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H99" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>274</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C100" s="25" t="s">
-        <v>83</v>
+      <c r="C100" s="50" t="s">
+        <v>689</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
       <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H100" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>276</v>
       </c>
@@ -19043,7 +19376,7 @@
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
     </row>
-    <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>278</v>
       </c>
@@ -19059,7 +19392,7 @@
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
     </row>
-    <row r="103" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>280</v>
       </c>
@@ -19075,7 +19408,7 @@
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
     </row>
-    <row r="104" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>282</v>
       </c>
@@ -19091,7 +19424,7 @@
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
     </row>
-    <row r="105" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
         <v>284</v>
       </c>
@@ -19104,10 +19437,14 @@
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H105" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="30" t="s">
         <v>76</v>
       </c>
@@ -19123,7 +19460,7 @@
       <c r="G106" s="18"/>
       <c r="H106" s="18"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="30">
         <v>4018764</v>
       </c>
@@ -19136,10 +19473,14 @@
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H107" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="30">
         <v>4018630</v>
       </c>
@@ -19152,10 +19493,14 @@
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H108" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="30">
         <v>4021021</v>
       </c>
@@ -19168,10 +19513,14 @@
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H109" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="38" t="s">
         <v>76</v>
       </c>
@@ -19183,7 +19532,7 @@
       <c r="E110" s="39"/>
       <c r="F110" s="39"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="38" t="s">
         <v>76</v>
       </c>
@@ -19195,7 +19544,7 @@
       <c r="E111" s="39"/>
       <c r="F111" s="39"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>76</v>
       </c>
@@ -19203,7 +19552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>76</v>
       </c>
@@ -19211,7 +19560,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>76</v>
       </c>
@@ -19219,7 +19568,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>76</v>
       </c>
@@ -19227,7 +19576,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>76</v>
       </c>
@@ -19235,7 +19584,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>76</v>
       </c>
@@ -19243,7 +19592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>76</v>
       </c>
@@ -19251,7 +19600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>76</v>
       </c>
@@ -19259,7 +19608,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>76</v>
       </c>
@@ -19267,7 +19616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>76</v>
       </c>
@@ -19275,7 +19624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>76</v>
       </c>
@@ -19283,7 +19632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>76</v>
       </c>
@@ -19291,7 +19640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>76</v>
       </c>
@@ -19302,53 +19651,54 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.39305555555555599" bottom="0.39305555555555599" header="0.196527777777778" footer="0.196527777777778"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4" style="31" customWidth="1"/>
-    <col min="4" max="6" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="31" customWidth="1"/>
+    <col min="4" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="63" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>289</v>
       </c>
@@ -19359,12 +19709,20 @@
         <v>47</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>291</v>
       </c>
@@ -19377,10 +19735,14 @@
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H3" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>293</v>
       </c>
@@ -19393,10 +19755,14 @@
       <c r="D4" s="15"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>295</v>
       </c>
@@ -19409,10 +19775,14 @@
       <c r="D5" s="15"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H5" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>297</v>
       </c>
@@ -19425,10 +19795,14 @@
       <c r="D6" s="15"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>299</v>
       </c>
@@ -19441,10 +19815,14 @@
       <c r="D7" s="15"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" s="18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>301</v>
       </c>
@@ -19457,10 +19835,14 @@
       <c r="D8" s="15"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H8" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>303</v>
       </c>
@@ -19473,10 +19855,14 @@
       <c r="D9" s="15"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H9" s="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>305</v>
       </c>
@@ -19489,13 +19875,17 @@
       <c r="D10" s="15"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H10" s="18">
+        <v>44</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>307</v>
       </c>
@@ -19508,13 +19898,17 @@
       <c r="D11" s="15"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H11" s="18">
+        <v>40</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>309</v>
       </c>
@@ -19527,13 +19921,17 @@
       <c r="D12" s="15"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H12" s="18">
+        <v>110</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>311</v>
       </c>
@@ -19546,10 +19944,14 @@
       <c r="D13" s="15"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>313</v>
       </c>
@@ -19562,10 +19964,14 @@
       <c r="D14" s="15"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H14" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>315</v>
       </c>
@@ -19578,10 +19984,14 @@
       <c r="D15" s="15"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H15" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>317</v>
       </c>
@@ -19594,10 +20004,14 @@
       <c r="D16" s="15"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H16" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>319</v>
       </c>
@@ -19610,10 +20024,14 @@
       <c r="D17" s="15"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H17" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>321</v>
       </c>
@@ -19626,10 +20044,14 @@
       <c r="D18" s="15"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H18" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>323</v>
       </c>
@@ -19642,10 +20064,14 @@
       <c r="D19" s="15"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H19" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>325</v>
       </c>
@@ -19658,10 +20084,12 @@
       <c r="D20" s="15"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="49" t="s">
+        <v>684</v>
+      </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>327</v>
       </c>
@@ -19674,10 +20102,12 @@
       <c r="D21" s="15"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="49" t="s">
+        <v>684</v>
+      </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>329</v>
       </c>
@@ -19690,10 +20120,14 @@
       <c r="D22" s="15"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H22" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>331</v>
       </c>
@@ -19706,10 +20140,14 @@
       <c r="D23" s="15"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H23" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>333</v>
       </c>
@@ -19722,10 +20160,14 @@
       <c r="D24" s="15"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H24" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>335</v>
       </c>
@@ -19738,10 +20180,14 @@
       <c r="D25" s="15"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H25" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>337</v>
       </c>
@@ -19754,10 +20200,14 @@
       <c r="D26" s="15"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H26" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>339</v>
       </c>
@@ -19770,10 +20220,14 @@
       <c r="D27" s="15"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H27" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>341</v>
       </c>
@@ -19786,10 +20240,14 @@
       <c r="D28" s="15"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H28" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>343</v>
       </c>
@@ -19802,10 +20260,14 @@
       <c r="D29" s="15"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H29" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>345</v>
       </c>
@@ -19818,10 +20280,14 @@
       <c r="D30" s="15"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>347</v>
       </c>
@@ -19834,10 +20300,14 @@
       <c r="D31" s="15"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H31" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>349</v>
       </c>
@@ -19850,10 +20320,14 @@
       <c r="D32" s="15"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H32" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>4733325</v>
       </c>
@@ -19866,10 +20340,14 @@
       <c r="D33" s="15"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H33" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>352</v>
       </c>
@@ -19882,10 +20360,14 @@
       <c r="D34" s="15"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H34" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>354</v>
       </c>
@@ -19898,10 +20380,14 @@
       <c r="D35" s="15"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H35" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>356</v>
       </c>
@@ -19914,10 +20400,14 @@
       <c r="D36" s="15"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H36" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>358</v>
       </c>
@@ -19930,10 +20420,14 @@
       <c r="D37" s="15"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H37" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>360</v>
       </c>
@@ -19946,10 +20440,14 @@
       <c r="D38" s="15"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H38" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>362</v>
       </c>
@@ -19962,10 +20460,14 @@
       <c r="D39" s="15"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H39" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>364</v>
       </c>
@@ -19978,10 +20480,14 @@
       <c r="D40" s="15"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H40" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>366</v>
       </c>
@@ -19994,10 +20500,14 @@
       <c r="D41" s="15"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H41" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>368</v>
       </c>
@@ -20010,10 +20520,14 @@
       <c r="D42" s="15"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H42" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>370</v>
       </c>
@@ -20026,10 +20540,14 @@
       <c r="D43" s="15"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H43" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>372</v>
       </c>
@@ -20042,10 +20560,14 @@
       <c r="D44" s="15"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H44" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>374</v>
       </c>
@@ -20058,10 +20580,14 @@
       <c r="D45" s="15"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H45" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>376</v>
       </c>
@@ -20074,10 +20600,14 @@
       <c r="D46" s="15"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H46" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>378</v>
       </c>
@@ -20093,7 +20623,7 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>380</v>
       </c>
@@ -20109,7 +20639,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>382</v>
       </c>
@@ -20125,7 +20655,7 @@
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>384</v>
       </c>
@@ -20138,10 +20668,14 @@
       <c r="D50" s="15"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H50" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>386</v>
       </c>
@@ -20154,10 +20688,14 @@
       <c r="D51" s="15"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="H51" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>388</v>
       </c>
@@ -20170,10 +20708,14 @@
       <c r="D52" s="15"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H52" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>391</v>
       </c>
@@ -20186,10 +20728,14 @@
       <c r="D53" s="15"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="H53" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="33" t="s">
         <v>393</v>
       </c>
@@ -20202,10 +20748,14 @@
       <c r="D54" s="26"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="H54" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="30">
         <v>4018058</v>
       </c>
@@ -20221,7 +20771,7 @@
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="30">
         <v>4736583</v>
       </c>
@@ -20237,163 +20787,163 @@
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="C96"/>
     </row>
@@ -20405,49 +20955,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="10" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="63" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>397</v>
       </c>
@@ -20458,12 +21009,20 @@
         <v>47</v>
       </c>
       <c r="D2" s="26"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>399</v>
       </c>
@@ -20476,10 +21035,14 @@
       <c r="D3" s="26"/>
       <c r="E3" s="15"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H3" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>401</v>
       </c>
@@ -20492,10 +21055,14 @@
       <c r="D4" s="26"/>
       <c r="E4" s="15"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H4" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>403</v>
       </c>
@@ -20511,7 +21078,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>405</v>
       </c>
@@ -20524,10 +21091,14 @@
       <c r="D6" s="26"/>
       <c r="E6" s="15"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H6" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>407</v>
       </c>
@@ -20540,10 +21111,14 @@
       <c r="D7" s="26"/>
       <c r="E7" s="15"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H7" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>409</v>
       </c>
@@ -20556,10 +21131,14 @@
       <c r="D8" s="26"/>
       <c r="E8" s="15"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H8" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>411</v>
       </c>
@@ -20572,10 +21151,14 @@
       <c r="D9" s="26"/>
       <c r="E9" s="15"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>413</v>
       </c>
@@ -20588,10 +21171,14 @@
       <c r="D10" s="26"/>
       <c r="E10" s="15"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>415</v>
       </c>
@@ -20604,10 +21191,10 @@
       <c r="D11" s="26"/>
       <c r="E11" s="15"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>417</v>
       </c>
@@ -20620,10 +21207,14 @@
       <c r="D12" s="26"/>
       <c r="E12" s="15"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H12" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>419</v>
       </c>
@@ -20636,10 +21227,14 @@
       <c r="D13" s="26"/>
       <c r="E13" s="15"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>421</v>
       </c>
@@ -20652,10 +21247,14 @@
       <c r="D14" s="26"/>
       <c r="E14" s="15"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H14" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>423</v>
       </c>
@@ -20668,10 +21267,14 @@
       <c r="D15" s="26"/>
       <c r="E15" s="15"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H15" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>425</v>
       </c>
@@ -20684,10 +21287,14 @@
       <c r="D16" s="26"/>
       <c r="E16" s="15"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H16" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>427</v>
       </c>
@@ -20700,10 +21307,14 @@
       <c r="D17" s="26"/>
       <c r="E17" s="15"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H17" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>429</v>
       </c>
@@ -20716,10 +21327,14 @@
       <c r="D18" s="26"/>
       <c r="E18" s="15"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H18" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>431</v>
       </c>
@@ -20732,10 +21347,14 @@
       <c r="D19" s="26"/>
       <c r="E19" s="15"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="H19" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>433</v>
       </c>
@@ -20748,10 +21367,14 @@
       <c r="D20" s="26"/>
       <c r="E20" s="15"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H20" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>435</v>
       </c>
@@ -20764,10 +21387,14 @@
       <c r="D21" s="26"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H21" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>437</v>
       </c>
@@ -20780,10 +21407,10 @@
       <c r="D22" s="26"/>
       <c r="E22" s="15"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>439</v>
       </c>
@@ -20796,10 +21423,14 @@
       <c r="D23" s="26"/>
       <c r="E23" s="15"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H23" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>441</v>
       </c>
@@ -20812,10 +21443,14 @@
       <c r="D24" s="26"/>
       <c r="E24" s="15"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H24" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>443</v>
       </c>
@@ -20828,10 +21463,14 @@
       <c r="D25" s="26"/>
       <c r="E25" s="15"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>445</v>
       </c>
@@ -20844,10 +21483,14 @@
       <c r="D26" s="26"/>
       <c r="E26" s="15"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H26" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>447</v>
       </c>
@@ -20860,10 +21503,10 @@
       <c r="D27" s="26"/>
       <c r="E27" s="15"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="18"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>449</v>
       </c>
@@ -20876,10 +21519,14 @@
       <c r="D28" s="26"/>
       <c r="E28" s="15"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H28" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>451</v>
       </c>
@@ -20892,10 +21539,14 @@
       <c r="D29" s="26"/>
       <c r="E29" s="15"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H29" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>453</v>
       </c>
@@ -20908,10 +21559,14 @@
       <c r="D30" s="26"/>
       <c r="E30" s="15"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>455</v>
       </c>
@@ -20924,10 +21579,14 @@
       <c r="D31" s="26"/>
       <c r="E31" s="15"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H31" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>457</v>
       </c>
@@ -20940,10 +21599,14 @@
       <c r="D32" s="26"/>
       <c r="E32" s="15"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H32" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>459</v>
       </c>
@@ -20956,10 +21619,14 @@
       <c r="D33" s="26"/>
       <c r="E33" s="15"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H33" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>461</v>
       </c>
@@ -20972,10 +21639,14 @@
       <c r="D34" s="26"/>
       <c r="E34" s="15"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H34" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>463</v>
       </c>
@@ -20988,10 +21659,14 @@
       <c r="D35" s="26"/>
       <c r="E35" s="15"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H35" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>465</v>
       </c>
@@ -21007,7 +21682,7 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
         <v>467</v>
       </c>
@@ -21023,7 +21698,7 @@
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>469</v>
       </c>
@@ -21039,7 +21714,7 @@
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>471</v>
       </c>
@@ -21052,10 +21727,14 @@
       <c r="D39" s="26"/>
       <c r="E39" s="15"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H39" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>473</v>
       </c>
@@ -21068,10 +21747,14 @@
       <c r="D40" s="26"/>
       <c r="E40" s="15"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>475</v>
       </c>
@@ -21084,10 +21767,14 @@
       <c r="D41" s="26"/>
       <c r="E41" s="15"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H41" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>477</v>
       </c>
@@ -21100,10 +21787,14 @@
       <c r="D42" s="26"/>
       <c r="E42" s="15"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H42" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>479</v>
       </c>
@@ -21116,10 +21807,14 @@
       <c r="D43" s="26"/>
       <c r="E43" s="15"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H43" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>481</v>
       </c>
@@ -21132,10 +21827,14 @@
       <c r="D44" s="26"/>
       <c r="E44" s="15"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H44" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>483</v>
       </c>
@@ -21148,10 +21847,14 @@
       <c r="D45" s="26"/>
       <c r="E45" s="15"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H45" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>485</v>
       </c>
@@ -21164,10 +21867,10 @@
       <c r="D46" s="26"/>
       <c r="E46" s="15"/>
       <c r="F46" s="11"/>
-      <c r="G46" s="18"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>487</v>
       </c>
@@ -21180,10 +21883,14 @@
       <c r="D47" s="27"/>
       <c r="E47" s="15"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H47" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>489</v>
       </c>
@@ -21196,10 +21903,14 @@
       <c r="D48" s="26"/>
       <c r="E48" s="15"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H48" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>491</v>
       </c>
@@ -21212,10 +21923,14 @@
       <c r="D49" s="26"/>
       <c r="E49" s="15"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H49" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>493</v>
       </c>
@@ -21228,10 +21943,14 @@
       <c r="D50" s="26"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H50" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>495</v>
       </c>
@@ -21247,7 +21966,7 @@
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>497</v>
       </c>
@@ -21260,10 +21979,14 @@
       <c r="D52" s="15"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H52" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>499</v>
       </c>
@@ -21276,10 +21999,14 @@
       <c r="D53" s="15"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H53" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>501</v>
       </c>
@@ -21292,10 +22019,14 @@
       <c r="D54" s="15"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H54" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>503</v>
       </c>
@@ -21308,10 +22039,14 @@
       <c r="D55" s="15"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H55" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>505</v>
       </c>
@@ -21324,10 +22059,14 @@
       <c r="D56" s="26"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H56" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>507</v>
       </c>
@@ -21340,24 +22079,34 @@
       <c r="D57" s="26"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H57" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24">
         <v>4005118</v>
       </c>
       <c r="B58" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="51" t="s">
+        <v>689</v>
+      </c>
       <c r="D58" s="26"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H58" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>510</v>
       </c>
@@ -21370,10 +22119,14 @@
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H59" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24">
         <v>4022485</v>
       </c>
@@ -21386,10 +22139,14 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H60" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24">
         <v>4021490</v>
       </c>
@@ -21402,10 +22159,14 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="H61" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24">
         <v>4024238</v>
       </c>
@@ -21418,10 +22179,14 @@
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H62" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24">
         <v>4024746</v>
       </c>
@@ -21434,10 +22199,14 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H63" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24">
         <v>4019967</v>
       </c>
@@ -21450,10 +22219,14 @@
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H64" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24">
         <v>3714648</v>
       </c>
@@ -21466,10 +22239,14 @@
       <c r="D65" s="11"/>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="66" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H65" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24">
         <v>12705</v>
       </c>
@@ -21482,10 +22259,10 @@
       <c r="D66" s="11"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
+      <c r="G66" s="49"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="67" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24">
         <v>4023963</v>
       </c>
@@ -21498,10 +22275,14 @@
       <c r="D67" s="11"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-    </row>
-    <row r="68" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H67" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24">
         <v>4024092</v>
       </c>
@@ -21514,10 +22295,14 @@
       <c r="D68" s="11"/>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H68" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24">
         <v>4022528</v>
       </c>
@@ -21530,10 +22315,14 @@
       <c r="D69" s="11"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H69" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24">
         <v>4017583</v>
       </c>
@@ -21546,10 +22335,14 @@
       <c r="D70" s="11"/>
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H70" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24">
         <v>4024156</v>
       </c>
@@ -21562,10 +22355,14 @@
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="H71" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24">
         <v>4021591</v>
       </c>
@@ -21578,10 +22375,14 @@
       <c r="D72" s="30"/>
       <c r="E72" s="24"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="H72" s="18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24">
         <v>3012801</v>
       </c>
@@ -21597,7 +22398,7 @@
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
     </row>
-    <row r="74" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24">
         <v>4706090</v>
       </c>
@@ -21613,7 +22414,7 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24">
         <v>4024110</v>
       </c>
@@ -21626,10 +22427,14 @@
       <c r="D75" s="24"/>
       <c r="E75" s="30"/>
       <c r="F75" s="11"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H75" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24">
         <v>4001219</v>
       </c>
@@ -21642,10 +22447,14 @@
       <c r="D76" s="24"/>
       <c r="E76" s="30"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="H76" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24">
         <v>4005062</v>
       </c>
@@ -21661,7 +22470,7 @@
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24">
         <v>4024096</v>
       </c>
@@ -21674,10 +22483,14 @@
       <c r="D78" s="30"/>
       <c r="E78" s="24"/>
       <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-    </row>
-    <row r="79" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H78" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24">
         <v>4022635</v>
       </c>
@@ -21690,10 +22503,14 @@
       <c r="D79" s="11"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-    </row>
-    <row r="80" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H79" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24">
         <v>4019233</v>
       </c>
@@ -21709,7 +22526,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
     </row>
-    <row r="81" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24">
         <v>4003938</v>
       </c>
@@ -21725,7 +22542,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24">
         <v>4217922</v>
       </c>
@@ -21741,7 +22558,7 @@
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
     </row>
-    <row r="83" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24">
         <v>4024370</v>
       </c>
@@ -21754,10 +22571,14 @@
       <c r="D83" s="11"/>
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H83" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24">
         <v>4024247</v>
       </c>
@@ -21770,10 +22591,14 @@
       <c r="D84" s="11"/>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="H84" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24">
         <v>3013262</v>
       </c>
@@ -21789,7 +22614,7 @@
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
     </row>
-    <row r="86" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24">
         <v>4022314</v>
       </c>
@@ -21805,7 +22630,7 @@
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24">
         <v>4020857</v>
       </c>
@@ -21818,10 +22643,14 @@
       <c r="D87" s="11"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-    </row>
-    <row r="88" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H87" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24">
         <v>4020373</v>
       </c>
@@ -21834,10 +22663,14 @@
       <c r="D88" s="11"/>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-    </row>
-    <row r="89" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H88" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24">
         <v>4022783</v>
       </c>
@@ -21850,10 +22683,14 @@
       <c r="D89" s="11"/>
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H89" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24">
         <v>4022113</v>
       </c>
@@ -21866,10 +22703,14 @@
       <c r="D90" s="11"/>
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H90" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24">
         <v>4022421</v>
       </c>
@@ -21882,58 +22723,62 @@
       <c r="D91" s="11"/>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-    </row>
-    <row r="92" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H91" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92"/>
       <c r="D92"/>
     </row>
-    <row r="93" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93"/>
       <c r="D93"/>
     </row>
-    <row r="94" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94"/>
       <c r="D94"/>
     </row>
-    <row r="95" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95"/>
       <c r="D95"/>
     </row>
-    <row r="96" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96"/>
       <c r="D96"/>
     </row>
-    <row r="97" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97"/>
       <c r="D97"/>
     </row>
-    <row r="98" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98"/>
       <c r="D98"/>
     </row>
-    <row r="99" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99"/>
       <c r="D99"/>
     </row>
-    <row r="100" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100"/>
       <c r="D100"/>
     </row>
-    <row r="101" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104"/>
       <c r="D104"/>
     </row>
@@ -21945,44 +22790,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.21875" style="10" customWidth="1"/>
-    <col min="2" max="4" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="10" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="66" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="63" t="s">
         <v>682</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="65" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>544</v>
       </c>
@@ -21990,12 +22835,16 @@
         <v>47</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>694</v>
+      </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>545</v>
       </c>
@@ -22008,7 +22857,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>546</v>
       </c>
@@ -22021,7 +22870,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>547</v>
       </c>
@@ -22034,7 +22883,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>549</v>
       </c>
@@ -22047,7 +22896,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>550</v>
       </c>
@@ -22060,7 +22909,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>551</v>
       </c>
@@ -22073,7 +22922,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>552</v>
       </c>
@@ -22086,7 +22935,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>553</v>
       </c>
@@ -22099,7 +22948,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>554</v>
       </c>
@@ -22112,7 +22961,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>555</v>
       </c>
@@ -22125,7 +22974,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>556</v>
       </c>
@@ -22138,7 +22987,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>558</v>
       </c>
@@ -22151,7 +23000,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>559</v>
       </c>
@@ -22164,7 +23013,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>560</v>
       </c>
@@ -22177,7 +23026,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>561</v>
       </c>
@@ -22190,7 +23039,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>562</v>
       </c>
@@ -22203,7 +23052,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>564</v>
       </c>
@@ -22216,7 +23065,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>565</v>
       </c>
@@ -22229,7 +23078,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>566</v>
       </c>
@@ -22242,7 +23091,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>567</v>
       </c>
@@ -22255,7 +23104,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>568</v>
       </c>
@@ -22268,7 +23117,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>569</v>
       </c>
@@ -22281,7 +23130,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>570</v>
       </c>
@@ -22294,7 +23143,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>571</v>
       </c>
@@ -22307,7 +23156,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>572</v>
       </c>
@@ -22320,7 +23169,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>573</v>
       </c>
@@ -22333,7 +23182,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>574</v>
       </c>
@@ -22346,7 +23195,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>575</v>
       </c>
@@ -22359,7 +23208,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>577</v>
       </c>
@@ -22372,7 +23221,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>578</v>
       </c>
@@ -22385,7 +23234,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
     </row>
-    <row r="33" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>579</v>
       </c>
@@ -22398,7 +23247,7 @@
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>581</v>
       </c>
@@ -22411,7 +23260,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
     </row>
-    <row r="35" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>582</v>
       </c>
@@ -22424,7 +23273,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>584</v>
       </c>
@@ -22437,7 +23286,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>585</v>
       </c>
@@ -22450,7 +23299,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>586</v>
       </c>
@@ -22463,7 +23312,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>588</v>
       </c>
@@ -22476,7 +23325,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>589</v>
       </c>
@@ -22489,7 +23338,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>590</v>
       </c>
@@ -22502,7 +23351,7 @@
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>591</v>
       </c>
@@ -22515,7 +23364,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
     </row>
-    <row r="43" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>592</v>
       </c>
@@ -22528,7 +23377,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>593</v>
       </c>
@@ -22541,7 +23390,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>594</v>
       </c>
@@ -22554,7 +23403,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>596</v>
       </c>
@@ -22567,7 +23416,7 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
     </row>
-    <row r="47" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>597</v>
       </c>
@@ -22580,7 +23429,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>598</v>
       </c>
@@ -22593,7 +23442,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>599</v>
       </c>
@@ -22606,7 +23455,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>600</v>
       </c>
@@ -22619,7 +23468,7 @@
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
-    <row r="51" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>601</v>
       </c>
@@ -22632,7 +23481,7 @@
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>602</v>
       </c>
@@ -22645,7 +23494,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
-    <row r="53" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>603</v>
       </c>
@@ -22658,7 +23507,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>605</v>
       </c>
@@ -22671,7 +23520,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
-    <row r="55" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>606</v>
       </c>
@@ -22684,7 +23533,7 @@
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>607</v>
       </c>
@@ -22697,7 +23546,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
-    <row r="57" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>608</v>
       </c>
@@ -22710,7 +23559,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>609</v>
       </c>
@@ -22723,7 +23572,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>610</v>
       </c>
@@ -22736,7 +23585,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>611</v>
       </c>
@@ -22749,7 +23598,7 @@
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
     </row>
-    <row r="61" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>612</v>
       </c>
@@ -22762,7 +23611,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>613</v>
       </c>
@@ -22775,7 +23624,7 @@
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
-    <row r="63" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>614</v>
       </c>
@@ -22788,7 +23637,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>615</v>
       </c>
@@ -22801,7 +23650,7 @@
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
     </row>
-    <row r="65" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>616</v>
       </c>
@@ -22814,7 +23663,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>617</v>
       </c>
@@ -22827,7 +23676,7 @@
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>618</v>
       </c>
@@ -22840,7 +23689,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>619</v>
       </c>
@@ -22853,7 +23702,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
     </row>
-    <row r="69" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>620</v>
       </c>
@@ -22866,7 +23715,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>621</v>
       </c>
@@ -22879,7 +23728,7 @@
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>622</v>
       </c>
@@ -22892,7 +23741,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>623</v>
       </c>
@@ -22905,7 +23754,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>625</v>
       </c>
@@ -22918,7 +23767,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>626</v>
       </c>
@@ -22931,7 +23780,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
     </row>
-    <row r="75" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>627</v>
       </c>
@@ -22944,7 +23793,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>628</v>
       </c>
@@ -22957,7 +23806,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
     </row>
-    <row r="77" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>629</v>
       </c>
@@ -22970,7 +23819,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>630</v>
       </c>
@@ -22983,7 +23832,7 @@
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>631</v>
       </c>
@@ -22996,7 +23845,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>632</v>
       </c>
@@ -23009,7 +23858,7 @@
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
     </row>
-    <row r="81" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>633</v>
       </c>
@@ -23022,7 +23871,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>634</v>
       </c>
@@ -23035,7 +23884,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
     </row>
-    <row r="83" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
         <v>635</v>
       </c>
@@ -23048,7 +23897,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>636</v>
       </c>
@@ -23061,7 +23910,7 @@
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>637</v>
       </c>
@@ -23074,7 +23923,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>638</v>
       </c>
@@ -23087,7 +23936,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>639</v>
       </c>
@@ -23100,7 +23949,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>640</v>
       </c>
@@ -23113,7 +23962,7 @@
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
     </row>
-    <row r="89" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
         <v>641</v>
       </c>
@@ -23126,7 +23975,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
         <v>642</v>
       </c>
@@ -23139,7 +23988,7 @@
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
     </row>
-    <row r="91" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
         <v>643</v>
       </c>
@@ -23152,7 +24001,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
         <v>644</v>
       </c>
@@ -23165,7 +24014,7 @@
       <c r="F92" s="18"/>
       <c r="G92" s="18"/>
     </row>
-    <row r="93" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
         <v>645</v>
       </c>
@@ -23178,7 +24027,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
         <v>646</v>
       </c>
@@ -23191,7 +24040,7 @@
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
         <v>647</v>
       </c>
@@ -23204,22 +24053,22 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
   </sheetData>
@@ -23230,35 +24079,35 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.33203125" style="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>649</v>
       </c>
@@ -23278,7 +24127,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>654</v>
       </c>
@@ -23290,7 +24139,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>655</v>
       </c>
@@ -23302,7 +24151,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>656</v>
       </c>
@@ -23314,7 +24163,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>657</v>
       </c>
@@ -23326,7 +24175,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>658</v>
       </c>
@@ -23338,7 +24187,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>659</v>
       </c>
@@ -23350,7 +24199,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>660</v>
       </c>
@@ -23362,7 +24211,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>661</v>
       </c>
@@ -23374,7 +24223,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>662</v>
       </c>
@@ -23386,25 +24235,25 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53" t="s">
         <v>663</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-    </row>
-    <row r="13" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+    </row>
+    <row r="13" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>664</v>
       </c>
@@ -23416,7 +24265,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>665</v>
       </c>
@@ -23428,7 +24277,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>666</v>
       </c>
@@ -23440,7 +24289,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>667</v>
       </c>
@@ -23452,7 +24301,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>668</v>
       </c>
@@ -23464,7 +24313,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>277</v>
       </c>
@@ -23476,7 +24325,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>669</v>
       </c>
@@ -23488,7 +24337,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>670</v>
       </c>
@@ -23500,7 +24349,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>671</v>
       </c>
@@ -23512,7 +24361,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>672</v>
       </c>
@@ -23524,7 +24373,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>673</v>
       </c>
@@ -23536,7 +24385,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>674</v>
       </c>
@@ -23548,7 +24397,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>675</v>
       </c>
@@ -23560,7 +24409,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>676</v>
       </c>
@@ -23572,7 +24421,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>677</v>
       </c>
@@ -23584,7 +24433,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>678</v>
       </c>
@@ -23596,41 +24445,41 @@
       <c r="E29" s="6"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
         <v>679</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-    </row>
-    <row r="31" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+    </row>
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>680</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-    </row>
-    <row r="33" spans="1:6" ht="3.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
